--- a/DemoApi/output.xlsx
+++ b/DemoApi/output.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Overhead (bytes)</t>
+    <t>Document size (bytes)</t>
   </si>
 </sst>
 </file>
@@ -72,7 +72,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.0</v>
+        <v>2427.0</v>
       </c>
     </row>
   </sheetData>

--- a/DemoApi/output.xlsx
+++ b/DemoApi/output.xlsx
@@ -12,9 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Document size (bytes)</t>
+    <t>Index Name</t>
+  </si>
+  <si>
+    <t>Index Size (bytes)</t>
+  </si>
+  <si>
+    <t>Sparse</t>
+  </si>
+  <si>
+    <t>isRead_1_senderId_1</t>
   </si>
 </sst>
 </file>
@@ -59,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -69,10 +78,22 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2427.0</v>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.5820288E7</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
